--- a/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.07366562294149</v>
+        <v>18.78565144088636</v>
       </c>
       <c r="C11" t="n">
-        <v>59.16229236815328</v>
+        <v>58.18178459540507</v>
       </c>
       <c r="D11" t="n">
-        <v>75.98315998172185</v>
+        <v>75.06550700003623</v>
       </c>
     </row>
     <row r="12">
